--- a/NEW HR/DE GRANO, RONALEI.xlsx
+++ b/NEW HR/DE GRANO, RONALEI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>ONT</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,15 +574,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -589,17 +586,29 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,7 +1299,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1342,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1406,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1466,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,7 +1532,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +1595,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,7 +1693,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1752,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1817,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1860,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1935,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2121,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2187,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2245,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2311,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2367,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2442,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2485,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,7 +2551,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2598,7 +2607,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,7 +2705,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2768,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,9 +3245,9 @@
   <dimension ref="A2:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A30" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3268,14 +3277,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3286,16 +3295,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="53">
         <v>44013</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3308,14 +3317,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3341,18 +3352,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3399,7 +3410,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>28.75</v>
+        <v>31.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3409,7 +3420,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>36.75</v>
+        <v>38.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4102,7 +4113,9 @@
       <c r="A44" s="40">
         <v>44927</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
@@ -4113,21 +4126,29 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H44" s="39"/>
+      <c r="H44" s="39">
+        <v>1</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="K44" s="61">
+        <v>44929</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="40">
+        <v>44958</v>
+      </c>
       <c r="B45" s="20"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
@@ -4135,15 +4156,19 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+      <c r="A46" s="40">
+        <v>44986</v>
+      </c>
       <c r="B46" s="20"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
@@ -5048,17 +5073,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5127,14 +5152,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5148,17 +5173,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="53">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>44013</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5172,17 +5197,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="50"/>
+        <v>ONT</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5208,18 +5233,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/DE GRANO, RONALEI.xlsx
+++ b/NEW HR/DE GRANO, RONALEI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600420EC-F37A-4B29-8652-CAD08FA8C93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>PERIOD</t>
   </si>
@@ -194,11 +195,17 @@
   <si>
     <t>ONT</t>
   </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>MEDICAL TECHNOLOGIES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -571,8 +578,20 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -586,29 +605,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,7 +1306,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1349,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1413,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1473,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1539,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1602,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1700,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,7 +1759,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1824,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1867,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1942,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2128,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2194,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2252,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2318,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2374,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2449,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2492,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2558,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2614,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,7 +2712,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2775,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,25 +2841,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K102" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K103" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2864,25 +2871,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2894,13 +2901,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2909,14 +2916,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3220,7 +3227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3230,7 +3237,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3238,97 +3245,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K102"/>
+  <dimension ref="A2:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A36" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="4428" topLeftCell="A39" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="57">
         <v>44013</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3336,7 +3345,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3349,24 +3358,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3401,7 +3410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3425,7 +3434,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3443,7 +3452,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44013</v>
       </c>
@@ -3463,7 +3472,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>44044</v>
       </c>
@@ -3483,7 +3492,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>44075</v>
       </c>
@@ -3503,7 +3512,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>44105</v>
       </c>
@@ -3523,7 +3532,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>44136</v>
       </c>
@@ -3543,7 +3552,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>44166</v>
       </c>
@@ -3563,7 +3572,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -3581,7 +3590,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44197</v>
       </c>
@@ -3601,7 +3610,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>44228</v>
       </c>
@@ -3621,7 +3630,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44256</v>
       </c>
@@ -3641,7 +3650,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44287</v>
       </c>
@@ -3661,7 +3670,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44317</v>
       </c>
@@ -3681,7 +3690,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44348</v>
       </c>
@@ -3701,7 +3710,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44378</v>
       </c>
@@ -3721,7 +3730,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44409</v>
       </c>
@@ -3741,7 +3750,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44440</v>
       </c>
@@ -3761,7 +3770,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44470</v>
       </c>
@@ -3781,7 +3790,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44501</v>
       </c>
@@ -3805,7 +3814,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44531</v>
       </c>
@@ -3829,7 +3838,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>44</v>
       </c>
@@ -3847,7 +3856,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44562</v>
       </c>
@@ -3867,7 +3876,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44593</v>
       </c>
@@ -3887,7 +3896,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44621</v>
       </c>
@@ -3907,7 +3916,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44652</v>
       </c>
@@ -3927,7 +3936,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44682</v>
       </c>
@@ -3947,7 +3956,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44713</v>
       </c>
@@ -3967,7 +3976,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44743</v>
       </c>
@@ -3987,7 +3996,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44774</v>
       </c>
@@ -4007,7 +4016,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44805</v>
       </c>
@@ -4027,7 +4036,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44835</v>
       </c>
@@ -4047,7 +4056,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44866</v>
       </c>
@@ -4067,7 +4076,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44896</v>
       </c>
@@ -4091,7 +4100,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="48" t="s">
         <v>45</v>
       </c>
@@ -4109,7 +4118,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44927</v>
       </c>
@@ -4131,11 +4140,11 @@
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="61">
+      <c r="K44" s="49">
         <v>44929</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44958</v>
       </c>
@@ -4155,11 +4164,13 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44986</v>
       </c>
-      <c r="B46" s="20"/>
+      <c r="B46" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
@@ -4173,11 +4184,15 @@
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="49">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
       <c r="E47" s="9"/>
@@ -4189,10 +4204,14 @@
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="K47" s="49">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="40">
+        <v>45017</v>
+      </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
@@ -4207,8 +4226,10 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="40">
+        <v>45047</v>
+      </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -4223,8 +4244,10 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="40">
+        <v>45078</v>
+      </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -4239,8 +4262,10 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="40">
+        <v>45108</v>
+      </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
@@ -4255,8 +4280,10 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="40">
+        <v>45139</v>
+      </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
@@ -4271,8 +4298,10 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="40">
+        <v>45170</v>
+      </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
@@ -4287,8 +4316,10 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="40">
+        <v>45200</v>
+      </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>
@@ -4303,8 +4334,10 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="40">
+        <v>45231</v>
+      </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
@@ -4319,8 +4352,10 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="40">
+        <v>45261</v>
+      </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
       <c r="D56" s="39"/>
@@ -4335,8 +4370,10 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="40">
+        <v>45292</v>
+      </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
       <c r="D57" s="39"/>
@@ -4351,8 +4388,10 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="40">
+        <v>45323</v>
+      </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -4367,8 +4406,10 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="40">
+        <v>45352</v>
+      </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
       <c r="D59" s="39"/>
@@ -4383,8 +4424,10 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="40">
+        <v>45383</v>
+      </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
@@ -4399,8 +4442,10 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="40">
+        <v>45413</v>
+      </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -4415,8 +4460,10 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="40">
+        <v>45444</v>
+      </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -4431,8 +4478,10 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="40">
+        <v>45474</v>
+      </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -4447,8 +4496,10 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="40">
+        <v>45505</v>
+      </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
@@ -4463,8 +4514,10 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="40">
+        <v>45536</v>
+      </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
@@ -4479,8 +4532,10 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="40">
+        <v>45566</v>
+      </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
@@ -4495,8 +4550,10 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="40">
+        <v>45597</v>
+      </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
@@ -4511,8 +4568,10 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="40">
+        <v>45627</v>
+      </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
@@ -4527,8 +4586,10 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="40">
+        <v>45658</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -4543,8 +4604,10 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="40">
+        <v>45689</v>
+      </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -4559,8 +4622,10 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="40">
+        <v>45717</v>
+      </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -4575,8 +4640,10 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="40">
+        <v>45748</v>
+      </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -4591,8 +4658,10 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="40">
+        <v>45778</v>
+      </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
@@ -4607,8 +4676,10 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="40">
+        <v>45809</v>
+      </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -4623,8 +4694,10 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="40">
+        <v>45839</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4639,8 +4712,10 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40">
+        <v>45870</v>
+      </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -4655,8 +4730,10 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40">
+        <v>45901</v>
+      </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4671,8 +4748,10 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>45931</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -4687,8 +4766,10 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>45962</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4703,8 +4784,10 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <v>45992</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4719,8 +4802,10 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>46023</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4735,7 +4820,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4751,7 +4836,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4767,7 +4852,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4783,7 +4868,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4799,7 +4884,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4815,7 +4900,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4831,7 +4916,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4847,7 +4932,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4863,7 +4948,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4879,7 +4964,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4895,7 +4980,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4911,7 +4996,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4927,7 +5012,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4943,7 +5028,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4959,7 +5044,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4975,7 +5060,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4991,7 +5076,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5007,7 +5092,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5023,7 +5108,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5039,7 +5124,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5055,41 +5140,57 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="43"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="39"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="43"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="39"/>
       <c r="I102" s="9"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="15"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="20"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="41"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="43"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5112,104 +5213,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A3" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A3" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>DE GRANO, RONALEI</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
-        <v/>
-      </c>
-      <c r="C3" s="49"/>
+        <v>MEDICAL TECHNOLOGIES</v>
+      </c>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="57">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>44013</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>ONT</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5217,7 +5318,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5230,24 +5331,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5282,7 +5383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5306,7 +5407,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -5326,7 +5427,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -5342,7 +5443,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -5358,7 +5459,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -5374,7 +5475,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -5390,7 +5491,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -5406,7 +5507,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -5422,7 +5523,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -5438,7 +5539,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -5454,7 +5555,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -5470,7 +5571,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -5486,7 +5587,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -5502,7 +5603,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -5518,7 +5619,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -5534,7 +5635,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -5550,7 +5651,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -5566,7 +5667,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -5582,7 +5683,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -5598,7 +5699,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -5614,7 +5715,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -5630,7 +5731,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -5646,7 +5747,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -5662,7 +5763,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -5678,7 +5779,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -5694,7 +5795,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -5710,7 +5811,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -5726,7 +5827,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -5742,7 +5843,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -5758,7 +5859,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -5774,7 +5875,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -5790,7 +5891,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -5806,7 +5907,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -5822,7 +5923,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -5838,7 +5939,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -5854,7 +5955,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -5870,7 +5971,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -5886,7 +5987,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -5902,7 +6003,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -5918,7 +6019,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -5934,7 +6035,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -5950,7 +6051,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -5966,7 +6067,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -5982,7 +6083,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -5998,7 +6099,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6014,7 +6115,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6030,7 +6131,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6046,7 +6147,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6062,7 +6163,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6078,7 +6179,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6094,7 +6195,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6110,7 +6211,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6126,7 +6227,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6142,7 +6243,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6158,7 +6259,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6174,7 +6275,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6190,7 +6291,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6206,7 +6307,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6222,7 +6323,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6238,7 +6339,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6254,7 +6355,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6270,7 +6371,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6286,7 +6387,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6302,7 +6403,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6318,7 +6419,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6334,7 +6435,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6350,7 +6451,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6366,7 +6467,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6382,7 +6483,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6398,7 +6499,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6414,7 +6515,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6430,7 +6531,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6446,7 +6547,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6462,7 +6563,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6478,7 +6579,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6494,7 +6595,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -6510,7 +6611,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -6526,7 +6627,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -6542,7 +6643,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -6558,7 +6659,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6574,7 +6675,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6590,7 +6691,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6606,7 +6707,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6622,7 +6723,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6638,7 +6739,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6654,7 +6755,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6670,7 +6771,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -6686,7 +6787,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -6702,7 +6803,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -6718,7 +6819,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6734,7 +6835,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -6750,7 +6851,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -6766,7 +6867,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -6782,7 +6883,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6798,7 +6899,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6814,7 +6915,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -6830,7 +6931,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -6846,7 +6947,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -6862,7 +6963,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -6878,7 +6979,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -6894,7 +6995,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -6910,7 +7011,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -6926,7 +7027,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -6942,7 +7043,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -6958,7 +7059,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -6974,7 +7075,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -6990,7 +7091,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7006,7 +7107,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7022,7 +7123,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7038,7 +7139,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7054,7 +7155,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7070,7 +7171,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7086,7 +7187,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7102,7 +7203,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7118,7 +7219,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7134,7 +7235,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7150,7 +7251,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7166,7 +7267,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7182,7 +7283,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7198,7 +7299,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7214,7 +7315,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7230,7 +7331,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -7261,10 +7362,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7287,7 +7388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -7295,34 +7396,34 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7351,7 +7452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -7371,17 +7472,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7395,14 +7496,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7429,7 +7530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7455,7 +7556,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7481,7 +7582,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7507,7 +7608,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7533,7 +7634,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7559,7 +7660,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7585,7 +7686,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7611,7 +7712,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7631,7 +7732,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7651,7 +7752,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7671,7 +7772,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7692,7 +7793,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7713,7 +7814,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7734,7 +7835,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7755,7 +7856,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7776,7 +7877,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7797,7 +7898,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7818,7 +7919,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7839,7 +7940,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7860,7 +7961,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7881,7 +7982,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7902,7 +8003,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7923,7 +8024,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7944,7 +8045,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7965,7 +8066,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7986,7 +8087,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8007,7 +8108,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8028,7 +8129,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8049,7 +8150,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8070,7 +8171,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8091,7 +8192,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8100,7 +8201,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8109,7 +8210,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8118,7 +8219,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8127,7 +8228,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8136,7 +8237,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8145,7 +8246,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8154,7 +8255,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8163,7 +8264,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8172,7 +8273,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8181,7 +8282,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8190,7 +8291,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8199,7 +8300,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8208,7 +8309,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8217,7 +8318,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8226,7 +8327,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8235,7 +8336,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8244,7 +8345,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8253,7 +8354,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8262,7 +8363,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8271,7 +8372,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8280,7 +8381,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8289,7 +8390,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8298,7 +8399,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8307,7 +8408,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8316,7 +8417,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8325,7 +8426,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8334,7 +8435,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8343,7 +8444,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8352,7 +8453,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DE GRANO, RONALEI.xlsx
+++ b/NEW HR/DE GRANO, RONALEI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600420EC-F37A-4B29-8652-CAD08FA8C93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>PERIOD</t>
   </si>
@@ -201,11 +200,14 @@
   <si>
     <t>MEDICAL TECHNOLOGIES</t>
   </si>
+  <si>
+    <t>8/6,7/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -584,15 +586,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -605,11 +598,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,7 +1308,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,7 +1351,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1413,7 +1415,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1475,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1541,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1604,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1702,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1761,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1824,7 +1826,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1867,7 +1869,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1944,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2130,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2196,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2254,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2320,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +2376,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2451,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2494,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2560,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2616,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,7 +2714,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2777,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,25 +2843,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K103" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K103" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2871,25 +2873,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2901,13 +2903,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2916,14 +2918,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3227,7 +3229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3237,7 +3239,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3245,34 +3247,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A39" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A42" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3284,16 +3286,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3304,18 +3306,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <v>44013</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3326,18 +3328,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3345,7 +3347,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3358,24 +3360,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3410,7 +3412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3419,7 +3421,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>31.25</v>
+        <v>37.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3429,12 +3431,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>38.25</v>
+        <v>42.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3452,7 +3454,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44013</v>
       </c>
@@ -3472,7 +3474,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44044</v>
       </c>
@@ -3492,7 +3494,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44075</v>
       </c>
@@ -3512,7 +3514,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44105</v>
       </c>
@@ -3532,7 +3534,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44136</v>
       </c>
@@ -3552,7 +3554,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>44166</v>
       </c>
@@ -3572,7 +3574,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -3590,7 +3592,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44197</v>
       </c>
@@ -3610,7 +3612,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44228</v>
       </c>
@@ -3630,7 +3632,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44256</v>
       </c>
@@ -3650,7 +3652,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44287</v>
       </c>
@@ -3670,7 +3672,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44317</v>
       </c>
@@ -3690,7 +3692,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44348</v>
       </c>
@@ -3710,7 +3712,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44378</v>
       </c>
@@ -3730,7 +3732,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44409</v>
       </c>
@@ -3750,7 +3752,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44440</v>
       </c>
@@ -3770,7 +3772,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44470</v>
       </c>
@@ -3790,7 +3792,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44501</v>
       </c>
@@ -3814,7 +3816,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44531</v>
       </c>
@@ -3838,7 +3840,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>44</v>
       </c>
@@ -3856,7 +3858,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44562</v>
       </c>
@@ -3876,7 +3878,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44593</v>
       </c>
@@ -3896,7 +3898,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44621</v>
       </c>
@@ -3916,7 +3918,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44652</v>
       </c>
@@ -3936,7 +3938,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44682</v>
       </c>
@@ -3956,7 +3958,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44713</v>
       </c>
@@ -3976,7 +3978,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44743</v>
       </c>
@@ -3996,7 +3998,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44774</v>
       </c>
@@ -4016,7 +4018,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44805</v>
       </c>
@@ -4036,7 +4038,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44835</v>
       </c>
@@ -4056,7 +4058,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44866</v>
       </c>
@@ -4076,7 +4078,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44896</v>
       </c>
@@ -4100,7 +4102,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>45</v>
       </c>
@@ -4118,7 +4120,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44927</v>
       </c>
@@ -4144,7 +4146,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44958</v>
       </c>
@@ -4164,7 +4166,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44986</v>
       </c>
@@ -4188,7 +4190,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>52</v>
@@ -4208,97 +4210,113 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45017</v>
       </c>
       <c r="B48" s="20"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D48" s="39"/>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G48" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>45047</v>
       </c>
       <c r="B49" s="20"/>
-      <c r="C49" s="13"/>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>45078</v>
       </c>
       <c r="B50" s="20"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>45108</v>
       </c>
       <c r="B51" s="20"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>45139</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H52" s="39"/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H52" s="39">
+        <v>2</v>
+      </c>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>45170</v>
       </c>
@@ -4316,7 +4334,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>45200</v>
       </c>
@@ -4334,7 +4352,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>45231</v>
       </c>
@@ -4352,7 +4370,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>45261</v>
       </c>
@@ -4370,7 +4388,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>45292</v>
       </c>
@@ -4388,7 +4406,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>45323</v>
       </c>
@@ -4406,7 +4424,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>45352</v>
       </c>
@@ -4424,7 +4442,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>45383</v>
       </c>
@@ -4442,7 +4460,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>45413</v>
       </c>
@@ -4460,7 +4478,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>45444</v>
       </c>
@@ -4478,7 +4496,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>45474</v>
       </c>
@@ -4496,7 +4514,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>45505</v>
       </c>
@@ -4514,7 +4532,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>45536</v>
       </c>
@@ -4532,7 +4550,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>45566</v>
       </c>
@@ -4550,7 +4568,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>45597</v>
       </c>
@@ -4568,7 +4586,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>45627</v>
       </c>
@@ -4586,7 +4604,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>45658</v>
       </c>
@@ -4604,7 +4622,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>45689</v>
       </c>
@@ -4622,7 +4640,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>45717</v>
       </c>
@@ -4640,7 +4658,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45748</v>
       </c>
@@ -4658,7 +4676,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>45778</v>
       </c>
@@ -4676,7 +4694,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>45809</v>
       </c>
@@ -4694,7 +4712,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>45839</v>
       </c>
@@ -4712,7 +4730,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45870</v>
       </c>
@@ -4730,7 +4748,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>45901</v>
       </c>
@@ -4748,7 +4766,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45931</v>
       </c>
@@ -4766,7 +4784,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45962</v>
       </c>
@@ -4784,7 +4802,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45992</v>
       </c>
@@ -4802,7 +4820,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>46023</v>
       </c>
@@ -4820,7 +4838,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4836,7 +4854,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4852,7 +4870,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4868,7 +4886,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4884,7 +4902,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4900,7 +4918,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4916,7 +4934,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4932,7 +4950,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4948,7 +4966,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4964,7 +4982,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4980,7 +4998,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4996,7 +5014,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5012,7 +5030,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5028,7 +5046,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5044,7 +5062,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5060,7 +5078,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5076,7 +5094,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5092,7 +5110,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5108,7 +5126,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5124,7 +5142,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5140,7 +5158,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5156,7 +5174,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="15"/>
       <c r="C103" s="42"/>
@@ -5174,23 +5192,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5213,34 +5231,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A3" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A3" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5253,16 +5271,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5274,19 +5292,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>44013</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5298,19 +5316,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>ONT</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5318,7 +5336,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5331,24 +5349,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5383,7 +5401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5407,7 +5425,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -5427,7 +5445,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -5443,7 +5461,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -5459,7 +5477,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -5475,7 +5493,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -5491,7 +5509,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -5507,7 +5525,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -5523,7 +5541,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -5539,7 +5557,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -5555,7 +5573,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -5571,7 +5589,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -5587,7 +5605,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -5603,7 +5621,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -5619,7 +5637,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -5635,7 +5653,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -5651,7 +5669,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -5667,7 +5685,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -5683,7 +5701,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -5699,7 +5717,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -5715,7 +5733,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -5731,7 +5749,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -5747,7 +5765,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -5763,7 +5781,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -5779,7 +5797,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -5795,7 +5813,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -5811,7 +5829,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -5827,7 +5845,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -5843,7 +5861,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -5859,7 +5877,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -5875,7 +5893,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -5891,7 +5909,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -5907,7 +5925,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -5923,7 +5941,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -5939,7 +5957,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -5955,7 +5973,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -5971,7 +5989,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -5987,7 +6005,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6003,7 +6021,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6019,7 +6037,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6035,7 +6053,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6051,7 +6069,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6067,7 +6085,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6083,7 +6101,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6099,7 +6117,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6115,7 +6133,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6131,7 +6149,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6147,7 +6165,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6163,7 +6181,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6179,7 +6197,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6195,7 +6213,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6211,7 +6229,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6227,7 +6245,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6243,7 +6261,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6259,7 +6277,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6275,7 +6293,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6291,7 +6309,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6307,7 +6325,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6323,7 +6341,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6339,7 +6357,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6355,7 +6373,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6371,7 +6389,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6387,7 +6405,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6403,7 +6421,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6419,7 +6437,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6435,7 +6453,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6451,7 +6469,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6467,7 +6485,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6483,7 +6501,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6499,7 +6517,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6515,7 +6533,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6531,7 +6549,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6547,7 +6565,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6563,7 +6581,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6579,7 +6597,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6595,7 +6613,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -6611,7 +6629,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -6627,7 +6645,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -6643,7 +6661,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -6659,7 +6677,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6675,7 +6693,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6691,7 +6709,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6707,7 +6725,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6723,7 +6741,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6739,7 +6757,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6755,7 +6773,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6771,7 +6789,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -6787,7 +6805,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -6803,7 +6821,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -6819,7 +6837,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6835,7 +6853,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -6851,7 +6869,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -6867,7 +6885,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -6883,7 +6901,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6899,7 +6917,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6915,7 +6933,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -6931,7 +6949,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -6947,7 +6965,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -6963,7 +6981,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -6979,7 +6997,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -6995,7 +7013,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7011,7 +7029,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7027,7 +7045,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7043,7 +7061,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7059,7 +7077,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7075,7 +7093,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7091,7 +7109,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7107,7 +7125,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7123,7 +7141,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7139,7 +7157,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7155,7 +7173,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7171,7 +7189,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7187,7 +7205,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7203,7 +7221,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7219,7 +7237,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7235,7 +7253,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7251,7 +7269,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7267,7 +7285,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7283,7 +7301,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7299,7 +7317,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7315,7 +7333,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7331,7 +7349,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -7362,10 +7380,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7388,7 +7406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -7396,21 +7414,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -7423,7 +7441,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7452,7 +7470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -7472,17 +7490,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7503,7 +7521,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7530,7 +7548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7556,7 +7574,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7582,7 +7600,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7608,7 +7626,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7634,7 +7652,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7660,7 +7678,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7686,7 +7704,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7712,7 +7730,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7732,7 +7750,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7752,7 +7770,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7772,7 +7790,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7793,7 +7811,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7814,7 +7832,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7835,7 +7853,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7856,7 +7874,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7877,7 +7895,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7898,7 +7916,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7919,7 +7937,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7940,7 +7958,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7961,7 +7979,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7982,7 +8000,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8003,7 +8021,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8024,7 +8042,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8045,7 +8063,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8066,7 +8084,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8087,7 +8105,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8108,7 +8126,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8129,7 +8147,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8150,7 +8168,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8171,7 +8189,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8192,7 +8210,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8201,7 +8219,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8210,7 +8228,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8219,7 +8237,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8228,7 +8246,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8237,7 +8255,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8246,7 +8264,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8255,7 +8273,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8264,7 +8282,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8273,7 +8291,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8282,7 +8300,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8291,7 +8309,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8300,7 +8318,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8309,7 +8327,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8318,7 +8336,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8327,7 +8345,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8336,7 +8354,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8345,7 +8363,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8354,7 +8372,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8363,7 +8381,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8372,7 +8390,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8381,7 +8399,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8390,7 +8408,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8399,7 +8417,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8408,7 +8426,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8417,7 +8435,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8426,7 +8444,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8435,7 +8453,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8444,7 +8462,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8453,7 +8471,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
